--- a/Borradores/Parametrizacion/Estructura de las matrices.xlsx
+++ b/Borradores/Parametrizacion/Estructura de las matrices.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="92">
   <si>
     <t>Nombre de la matriz</t>
   </si>
@@ -235,6 +235,63 @@
   </si>
   <si>
     <t>Float</t>
+  </si>
+  <si>
+    <t>Mes</t>
+  </si>
+  <si>
+    <t>Fecha de diligenciamiento Desde</t>
+  </si>
+  <si>
+    <t>Fecha de diligenciamiento Desde Mes</t>
+  </si>
+  <si>
+    <t>Día</t>
+  </si>
+  <si>
+    <t>Fecha de diligenciamiento Hasta</t>
+  </si>
+  <si>
+    <t>Profesional responsable</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Descripción general del proceso de captura de información</t>
+  </si>
+  <si>
+    <t>Departamento</t>
+  </si>
+  <si>
+    <t>Número de alcaldes</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>Sector Representado</t>
+  </si>
+  <si>
+    <t>Nombre del consejero</t>
+  </si>
+  <si>
+    <t>Entidad / Empresa / Gremio</t>
+  </si>
+  <si>
+    <t>Nombre del director general de CAR</t>
+  </si>
+  <si>
+    <t>Fecha de posesión del actual director Día</t>
+  </si>
+  <si>
+    <t>Fecha de posesión del actual director Mes</t>
+  </si>
+  <si>
+    <t>Fecha de posesión del actual director Año</t>
+  </si>
+  <si>
+    <t>Diá</t>
   </si>
 </sst>
 </file>
@@ -1560,8 +1617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="C70" workbookViewId="0">
+      <selection activeCell="K90" sqref="K90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1635,7 +1692,7 @@
         <v>5</v>
       </c>
       <c r="J3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3" t="s">
         <v>58</v>
@@ -1670,7 +1727,7 @@
         <v>4</v>
       </c>
       <c r="J4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K4" t="s">
         <v>58</v>
@@ -1705,7 +1762,7 @@
         <v>4</v>
       </c>
       <c r="J5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K5" t="s">
         <v>58</v>
@@ -1740,7 +1797,7 @@
         <v>4</v>
       </c>
       <c r="J6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K6" t="s">
         <v>58</v>
@@ -1772,7 +1829,7 @@
         <v>4</v>
       </c>
       <c r="J7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K7" t="s">
         <v>58</v>
@@ -1807,7 +1864,7 @@
         <v>4</v>
       </c>
       <c r="J8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K8" t="s">
         <v>58</v>
@@ -1839,7 +1896,7 @@
         <v>5</v>
       </c>
       <c r="J9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K9" t="s">
         <v>58</v>
@@ -1871,7 +1928,7 @@
         <v>8</v>
       </c>
       <c r="J10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K10" t="s">
         <v>58</v>
@@ -1906,7 +1963,7 @@
         <v>5</v>
       </c>
       <c r="J11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K11" t="s">
         <v>58</v>
@@ -1941,7 +1998,7 @@
         <v>8</v>
       </c>
       <c r="J12">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K12" t="s">
         <v>58</v>
@@ -1976,7 +2033,7 @@
         <v>5</v>
       </c>
       <c r="J13">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K13" t="s">
         <v>58</v>
@@ -2011,7 +2068,7 @@
         <v>6</v>
       </c>
       <c r="J14">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K14" t="s">
         <v>58</v>
@@ -2046,7 +2103,7 @@
         <v>4</v>
       </c>
       <c r="J15">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K15" t="s">
         <v>58</v>
@@ -2081,7 +2138,7 @@
         <v>4</v>
       </c>
       <c r="J16">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K16" t="s">
         <v>58</v>
@@ -2116,7 +2173,7 @@
         <v>4</v>
       </c>
       <c r="J17">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K17" t="s">
         <v>58</v>
@@ -2148,7 +2205,7 @@
         <v>4</v>
       </c>
       <c r="J18">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K18" t="s">
         <v>58</v>
@@ -2158,388 +2215,2413 @@
       <c r="A19">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>41</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <v>42</v>
+      </c>
+      <c r="K19" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>41</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <v>42</v>
+      </c>
+      <c r="K20" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21">
+        <v>6</v>
+      </c>
+      <c r="G21">
+        <v>41</v>
+      </c>
+      <c r="I21">
+        <v>6</v>
+      </c>
+      <c r="J21">
+        <v>42</v>
+      </c>
+      <c r="K21" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>41</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <v>43</v>
+      </c>
+      <c r="K22" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <v>41</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>43</v>
+      </c>
+      <c r="K23" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+      <c r="G24">
+        <v>41</v>
+      </c>
+      <c r="I24">
+        <v>6</v>
+      </c>
+      <c r="J24">
+        <v>43</v>
+      </c>
+      <c r="K24" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>45</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="J25">
+        <v>45</v>
+      </c>
+      <c r="K25" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>48</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>49</v>
+      </c>
+      <c r="K26" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>11</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <v>11</v>
+      </c>
+      <c r="K27" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28">
+        <v>11</v>
+      </c>
+      <c r="I28">
+        <v>7</v>
+      </c>
+      <c r="J28">
+        <v>11</v>
+      </c>
+      <c r="K28" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>12</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+      <c r="J29">
+        <v>12</v>
+      </c>
+      <c r="K29" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <v>12</v>
+      </c>
+      <c r="I30">
+        <v>7</v>
+      </c>
+      <c r="J30">
+        <v>12</v>
+      </c>
+      <c r="K30" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>13</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31">
+        <v>13</v>
+      </c>
+      <c r="K31" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" t="s">
+        <v>82</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32">
+        <v>13</v>
+      </c>
+      <c r="I32">
+        <v>7</v>
+      </c>
+      <c r="J32">
+        <v>13</v>
+      </c>
+      <c r="K32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>14</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <v>14</v>
+      </c>
+      <c r="K33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+      <c r="G34">
+        <v>14</v>
+      </c>
+      <c r="I34">
+        <v>7</v>
+      </c>
+      <c r="J34">
+        <v>14</v>
+      </c>
+      <c r="K34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>15</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="J35">
+        <v>15</v>
+      </c>
+      <c r="K35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" t="s">
+        <v>82</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36">
+        <v>15</v>
+      </c>
+      <c r="I36">
+        <v>7</v>
+      </c>
+      <c r="J36">
+        <v>15</v>
+      </c>
+      <c r="K36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>16</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+      <c r="J37">
+        <v>16</v>
+      </c>
+      <c r="K37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" t="s">
+        <v>82</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38">
+        <v>16</v>
+      </c>
+      <c r="I38">
+        <v>7</v>
+      </c>
+      <c r="J38">
+        <v>16</v>
+      </c>
+      <c r="K38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>21</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39">
+        <v>21</v>
+      </c>
+      <c r="K39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>85</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>21</v>
+      </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
+      <c r="J40">
+        <v>21</v>
+      </c>
+      <c r="K40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>21</v>
+      </c>
+      <c r="I41">
+        <v>6</v>
+      </c>
+      <c r="J41">
+        <v>21</v>
+      </c>
+      <c r="K41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>84</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>22</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <v>22</v>
+      </c>
+      <c r="K42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>22</v>
+      </c>
+      <c r="I43">
+        <v>4</v>
+      </c>
+      <c r="J43">
+        <v>22</v>
+      </c>
+      <c r="K43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>86</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>22</v>
+      </c>
+      <c r="I44">
+        <v>6</v>
+      </c>
+      <c r="J44">
+        <v>22</v>
+      </c>
+      <c r="K44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>23</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45">
+        <v>23</v>
+      </c>
+      <c r="K45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46" t="s">
+        <v>85</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>23</v>
+      </c>
+      <c r="I46">
+        <v>4</v>
+      </c>
+      <c r="J46">
+        <v>23</v>
+      </c>
+      <c r="K46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>23</v>
+      </c>
+      <c r="I47">
+        <v>6</v>
+      </c>
+      <c r="J47">
+        <v>23</v>
+      </c>
+      <c r="K47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48" t="s">
+        <v>84</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>24</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <v>24</v>
+      </c>
+      <c r="K48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49" t="s">
+        <v>85</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>24</v>
+      </c>
+      <c r="I49">
+        <v>4</v>
+      </c>
+      <c r="J49">
+        <v>24</v>
+      </c>
+      <c r="K49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50" t="s">
+        <v>86</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>24</v>
+      </c>
+      <c r="I50">
+        <v>6</v>
+      </c>
+      <c r="J50">
+        <v>24</v>
+      </c>
+      <c r="K50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51" t="s">
+        <v>84</v>
+      </c>
+      <c r="E51">
+        <v>5</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>25</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <v>25</v>
+      </c>
+      <c r="K51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>85</v>
+      </c>
+      <c r="E52">
+        <v>5</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>25</v>
+      </c>
+      <c r="I52">
+        <v>4</v>
+      </c>
+      <c r="J52">
+        <v>25</v>
+      </c>
+      <c r="K52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53" t="s">
+        <v>86</v>
+      </c>
+      <c r="E53">
+        <v>5</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>25</v>
+      </c>
+      <c r="I53">
+        <v>6</v>
+      </c>
+      <c r="J53">
+        <v>25</v>
+      </c>
+      <c r="K53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54" t="s">
+        <v>84</v>
+      </c>
+      <c r="E54">
+        <v>6</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>26</v>
+      </c>
+      <c r="I54">
+        <v>2</v>
+      </c>
+      <c r="J54">
+        <v>26</v>
+      </c>
+      <c r="K54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55" t="s">
+        <v>85</v>
+      </c>
+      <c r="E55">
+        <v>6</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>26</v>
+      </c>
+      <c r="I55">
+        <v>4</v>
+      </c>
+      <c r="J55">
+        <v>26</v>
+      </c>
+      <c r="K55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56" t="s">
+        <v>86</v>
+      </c>
+      <c r="E56">
+        <v>6</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>26</v>
+      </c>
+      <c r="I56">
+        <v>6</v>
+      </c>
+      <c r="J56">
+        <v>26</v>
+      </c>
+      <c r="K56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57" t="s">
+        <v>84</v>
+      </c>
+      <c r="E57">
+        <v>7</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>27</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
+      <c r="J57">
+        <v>27</v>
+      </c>
+      <c r="K57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58" t="s">
+        <v>85</v>
+      </c>
+      <c r="E58">
+        <v>7</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>27</v>
+      </c>
+      <c r="I58">
+        <v>4</v>
+      </c>
+      <c r="J58">
+        <v>27</v>
+      </c>
+      <c r="K58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>86</v>
+      </c>
+      <c r="E59">
+        <v>7</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>27</v>
+      </c>
+      <c r="I59">
+        <v>6</v>
+      </c>
+      <c r="J59">
+        <v>27</v>
+      </c>
+      <c r="K59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E60">
+        <v>8</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>28</v>
+      </c>
+      <c r="I60">
+        <v>2</v>
+      </c>
+      <c r="J60">
+        <v>28</v>
+      </c>
+      <c r="K60" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61" t="s">
+        <v>85</v>
+      </c>
+      <c r="E61">
+        <v>8</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>28</v>
+      </c>
+      <c r="I61">
+        <v>4</v>
+      </c>
+      <c r="J61">
+        <v>28</v>
+      </c>
+      <c r="K61" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62" t="s">
+        <v>86</v>
+      </c>
+      <c r="E62">
+        <v>8</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>28</v>
+      </c>
+      <c r="I62">
+        <v>6</v>
+      </c>
+      <c r="J62">
+        <v>28</v>
+      </c>
+      <c r="K62" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63" t="s">
+        <v>84</v>
+      </c>
+      <c r="E63">
+        <v>9</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>29</v>
+      </c>
+      <c r="I63">
+        <v>2</v>
+      </c>
+      <c r="J63">
+        <v>29</v>
+      </c>
+      <c r="K63" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64" t="s">
+        <v>85</v>
+      </c>
+      <c r="E64">
+        <v>9</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>29</v>
+      </c>
+      <c r="I64">
+        <v>4</v>
+      </c>
+      <c r="J64">
+        <v>29</v>
+      </c>
+      <c r="K64" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65" t="s">
+        <v>86</v>
+      </c>
+      <c r="E65">
+        <v>9</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>29</v>
+      </c>
+      <c r="I65">
+        <v>6</v>
+      </c>
+      <c r="J65">
+        <v>29</v>
+      </c>
+      <c r="K65" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66" t="s">
+        <v>84</v>
+      </c>
+      <c r="E66">
+        <v>10</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>30</v>
+      </c>
+      <c r="I66">
+        <v>2</v>
+      </c>
+      <c r="J66">
+        <v>30</v>
+      </c>
+      <c r="K66" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67" t="s">
+        <v>85</v>
+      </c>
+      <c r="E67">
+        <v>10</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>30</v>
+      </c>
+      <c r="I67">
+        <v>4</v>
+      </c>
+      <c r="J67">
+        <v>30</v>
+      </c>
+      <c r="K67" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68" t="s">
+        <v>86</v>
+      </c>
+      <c r="E68">
+        <v>10</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>30</v>
+      </c>
+      <c r="I68">
+        <v>6</v>
+      </c>
+      <c r="J68">
+        <v>30</v>
+      </c>
+      <c r="K68" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69" t="s">
+        <v>84</v>
+      </c>
+      <c r="E69">
+        <v>11</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>31</v>
+      </c>
+      <c r="I69">
+        <v>2</v>
+      </c>
+      <c r="J69">
+        <v>31</v>
+      </c>
+      <c r="K69" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70" t="s">
+        <v>85</v>
+      </c>
+      <c r="E70">
+        <v>11</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>31</v>
+      </c>
+      <c r="I70">
+        <v>4</v>
+      </c>
+      <c r="J70">
+        <v>31</v>
+      </c>
+      <c r="K70" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71" t="s">
+        <v>86</v>
+      </c>
+      <c r="E71">
+        <v>11</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>31</v>
+      </c>
+      <c r="I71">
+        <v>6</v>
+      </c>
+      <c r="J71">
+        <v>31</v>
+      </c>
+      <c r="K71" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72" t="s">
+        <v>84</v>
+      </c>
+      <c r="E72">
+        <v>12</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>32</v>
+      </c>
+      <c r="I72">
+        <v>2</v>
+      </c>
+      <c r="J72">
+        <v>32</v>
+      </c>
+      <c r="K72" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73" t="s">
+        <v>85</v>
+      </c>
+      <c r="E73">
+        <v>12</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>32</v>
+      </c>
+      <c r="I73">
+        <v>4</v>
+      </c>
+      <c r="J73">
+        <v>32</v>
+      </c>
+      <c r="K73" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74" t="s">
+        <v>86</v>
+      </c>
+      <c r="E74">
+        <v>12</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>32</v>
+      </c>
+      <c r="I74">
+        <v>6</v>
+      </c>
+      <c r="J74">
+        <v>32</v>
+      </c>
+      <c r="K74" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75" t="s">
+        <v>84</v>
+      </c>
+      <c r="E75">
+        <v>13</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>33</v>
+      </c>
+      <c r="I75">
+        <v>2</v>
+      </c>
+      <c r="J75">
+        <v>33</v>
+      </c>
+      <c r="K75" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76" t="s">
+        <v>85</v>
+      </c>
+      <c r="E76">
+        <v>13</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>33</v>
+      </c>
+      <c r="I76">
+        <v>4</v>
+      </c>
+      <c r="J76">
+        <v>33</v>
+      </c>
+      <c r="K76" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77" t="s">
+        <v>86</v>
+      </c>
+      <c r="E77">
+        <v>13</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>33</v>
+      </c>
+      <c r="I77">
+        <v>6</v>
+      </c>
+      <c r="J77">
+        <v>33</v>
+      </c>
+      <c r="K77" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78" t="s">
+        <v>84</v>
+      </c>
+      <c r="E78">
+        <v>14</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>34</v>
+      </c>
+      <c r="I78">
+        <v>2</v>
+      </c>
+      <c r="J78">
+        <v>34</v>
+      </c>
+      <c r="K78" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79" t="s">
+        <v>85</v>
+      </c>
+      <c r="E79">
+        <v>14</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>34</v>
+      </c>
+      <c r="I79">
+        <v>4</v>
+      </c>
+      <c r="J79">
+        <v>34</v>
+      </c>
+      <c r="K79" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="D80" t="s">
+        <v>86</v>
+      </c>
+      <c r="E80">
+        <v>14</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>34</v>
+      </c>
+      <c r="I80">
+        <v>6</v>
+      </c>
+      <c r="J80">
+        <v>34</v>
+      </c>
+      <c r="K80" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+      <c r="D81" t="s">
+        <v>84</v>
+      </c>
+      <c r="E81">
+        <v>15</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>35</v>
+      </c>
+      <c r="I81">
+        <v>2</v>
+      </c>
+      <c r="J81">
+        <v>35</v>
+      </c>
+      <c r="K81" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82" t="s">
+        <v>85</v>
+      </c>
+      <c r="E82">
+        <v>15</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>35</v>
+      </c>
+      <c r="I82">
+        <v>4</v>
+      </c>
+      <c r="J82">
+        <v>35</v>
+      </c>
+      <c r="K82" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="D83" t="s">
+        <v>86</v>
+      </c>
+      <c r="E83">
+        <v>15</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>35</v>
+      </c>
+      <c r="I83">
+        <v>6</v>
+      </c>
+      <c r="J83">
+        <v>35</v>
+      </c>
+      <c r="K83" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84" t="s">
+        <v>84</v>
+      </c>
+      <c r="E84">
+        <v>16</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>36</v>
+      </c>
+      <c r="I84">
+        <v>2</v>
+      </c>
+      <c r="J84">
+        <v>36</v>
+      </c>
+      <c r="K84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85" t="s">
+        <v>85</v>
+      </c>
+      <c r="E85">
+        <v>16</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>36</v>
+      </c>
+      <c r="I85">
+        <v>4</v>
+      </c>
+      <c r="J85">
+        <v>36</v>
+      </c>
+      <c r="K85" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+      <c r="D86" t="s">
+        <v>86</v>
+      </c>
+      <c r="E86">
+        <v>16</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>36</v>
+      </c>
+      <c r="I86">
+        <v>6</v>
+      </c>
+      <c r="J86">
+        <v>36</v>
+      </c>
+      <c r="K86" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+      <c r="D87" t="s">
+        <v>84</v>
+      </c>
+      <c r="E87">
+        <v>17</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>37</v>
+      </c>
+      <c r="I87">
+        <v>2</v>
+      </c>
+      <c r="J87">
+        <v>37</v>
+      </c>
+      <c r="K87" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="D88" t="s">
+        <v>85</v>
+      </c>
+      <c r="E88">
+        <v>17</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>37</v>
+      </c>
+      <c r="I88">
+        <v>4</v>
+      </c>
+      <c r="J88">
+        <v>37</v>
+      </c>
+      <c r="K88" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+      <c r="D89" t="s">
+        <v>86</v>
+      </c>
+      <c r="E89">
+        <v>17</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>37</v>
+      </c>
+      <c r="I89">
+        <v>6</v>
+      </c>
+      <c r="J89">
+        <v>37</v>
+      </c>
+      <c r="K89" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="D90" t="s">
+        <v>87</v>
+      </c>
+      <c r="E90" t="s">
+        <v>87</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>37</v>
+      </c>
+      <c r="I90">
+        <v>4</v>
+      </c>
+      <c r="J90">
+        <v>39</v>
+      </c>
+      <c r="K90" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="D91" t="s">
+        <v>88</v>
+      </c>
+      <c r="E91" t="s">
+        <v>91</v>
+      </c>
+      <c r="F91">
+        <v>4</v>
+      </c>
+      <c r="G91">
+        <v>42</v>
+      </c>
+      <c r="I91">
+        <v>4</v>
+      </c>
+      <c r="J91">
+        <v>43</v>
+      </c>
+      <c r="K91" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>3</v>
+      </c>
+      <c r="D92" t="s">
+        <v>89</v>
+      </c>
+      <c r="E92" t="s">
+        <v>73</v>
+      </c>
+      <c r="F92">
+        <v>5</v>
+      </c>
+      <c r="G92">
+        <v>42</v>
+      </c>
+      <c r="I92">
+        <v>5</v>
+      </c>
+      <c r="J92">
+        <v>43</v>
+      </c>
+      <c r="K92" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>3</v>
+      </c>
+      <c r="D93" t="s">
+        <v>90</v>
+      </c>
+      <c r="E93" t="s">
+        <v>79</v>
+      </c>
+      <c r="F93">
+        <v>7</v>
+      </c>
+      <c r="G93">
+        <v>42</v>
+      </c>
+      <c r="I93">
+        <v>7</v>
+      </c>
+      <c r="J93">
+        <v>43</v>
+      </c>
+      <c r="K93" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>

--- a/Borradores/Parametrizacion/Estructura de las matrices.xlsx
+++ b/Borradores/Parametrizacion/Estructura de las matrices.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="110">
   <si>
     <t>Nombre de la matriz</t>
   </si>
@@ -183,15 +183,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
     <t>True</t>
   </si>
   <si>
@@ -292,6 +283,69 @@
   </si>
   <si>
     <t>Diá</t>
+  </si>
+  <si>
+    <t>Estructura organizativa de la Corporación.</t>
+  </si>
+  <si>
+    <t>Acto administrativo mediante el cual se crea la planta. Tipo de Acto</t>
+  </si>
+  <si>
+    <t>Tipo de acto</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acto administrativo mediante el cual se crea la planta. No. </t>
+  </si>
+  <si>
+    <t>Acto administrativo mediante el cual se crea la planta. Día</t>
+  </si>
+  <si>
+    <t>Acto administrativo mediante el cual se crea la planta. Mes</t>
+  </si>
+  <si>
+    <t>Acto administrativo mediante el cual se crea la planta. Año</t>
+  </si>
+  <si>
+    <t>Recursos propios</t>
+  </si>
+  <si>
+    <t>Recursos de la nación</t>
+  </si>
+  <si>
+    <t>Recursos fondo compensación</t>
+  </si>
+  <si>
+    <t>Financiación del costo anual de la nómina. Recursos propios</t>
+  </si>
+  <si>
+    <t>Financiación del costo anual de la nómina. Recursos de la nación</t>
+  </si>
+  <si>
+    <t>Financiación del costo anual de la nómina. Recursos fondo compensación.</t>
+  </si>
+  <si>
+    <t>Asesores de dirección. Nombre</t>
+  </si>
+  <si>
+    <t>Rol</t>
+  </si>
+  <si>
+    <t>Extensión</t>
+  </si>
+  <si>
+    <t>Correo electrónico</t>
+  </si>
+  <si>
+    <t>Asesores de dirección. Rol</t>
+  </si>
+  <si>
+    <t>Asesores de dirección. Extensión</t>
+  </si>
+  <si>
+    <t>Asesores de dirección. Correo</t>
   </si>
 </sst>
 </file>
@@ -1617,8 +1671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C70" workbookViewId="0">
-      <selection activeCell="K90" sqref="K90"/>
+    <sheetView tabSelected="1" topLeftCell="C111" workbookViewId="0">
+      <selection activeCell="J143" sqref="J143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1679,14 +1733,14 @@
       <c r="E3" t="s">
         <v>34</v>
       </c>
-      <c r="F3" t="s">
-        <v>55</v>
+      <c r="F3">
+        <v>1</v>
       </c>
       <c r="G3">
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I3">
         <v>5</v>
@@ -1695,7 +1749,7 @@
         <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1714,14 +1768,14 @@
       <c r="E4" t="s">
         <v>35</v>
       </c>
-      <c r="F4" t="s">
-        <v>55</v>
+      <c r="F4">
+        <v>1</v>
       </c>
       <c r="G4">
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I4">
         <v>4</v>
@@ -1730,7 +1784,7 @@
         <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1749,14 +1803,14 @@
       <c r="E5" t="s">
         <v>36</v>
       </c>
-      <c r="F5" t="s">
-        <v>55</v>
+      <c r="F5">
+        <v>1</v>
       </c>
       <c r="G5">
         <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I5">
         <v>4</v>
@@ -1765,7 +1819,7 @@
         <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1784,14 +1838,14 @@
       <c r="E6" t="s">
         <v>37</v>
       </c>
-      <c r="F6" t="s">
-        <v>55</v>
+      <c r="F6">
+        <v>1</v>
       </c>
       <c r="G6">
         <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I6">
         <v>4</v>
@@ -1800,7 +1854,7 @@
         <v>21</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1819,8 +1873,8 @@
       <c r="E7" t="s">
         <v>38</v>
       </c>
-      <c r="F7" t="s">
-        <v>55</v>
+      <c r="F7">
+        <v>1</v>
       </c>
       <c r="G7">
         <v>24</v>
@@ -1832,7 +1886,7 @@
         <v>23</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1851,14 +1905,14 @@
       <c r="E8" t="s">
         <v>39</v>
       </c>
-      <c r="F8" t="s">
-        <v>55</v>
+      <c r="F8">
+        <v>1</v>
       </c>
       <c r="G8">
         <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I8">
         <v>4</v>
@@ -1867,7 +1921,7 @@
         <v>26</v>
       </c>
       <c r="K8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -1886,8 +1940,8 @@
       <c r="E9" t="s">
         <v>53</v>
       </c>
-      <c r="F9" t="s">
-        <v>56</v>
+      <c r="F9">
+        <v>4</v>
       </c>
       <c r="G9">
         <v>29</v>
@@ -1899,7 +1953,7 @@
         <v>28</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -1918,8 +1972,8 @@
       <c r="E10" t="s">
         <v>54</v>
       </c>
-      <c r="F10" t="s">
-        <v>57</v>
+      <c r="F10">
+        <v>7</v>
       </c>
       <c r="G10">
         <v>29</v>
@@ -1931,7 +1985,7 @@
         <v>28</v>
       </c>
       <c r="K10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1945,19 +1999,19 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
         <v>53</v>
       </c>
-      <c r="F11" t="s">
-        <v>56</v>
+      <c r="F11">
+        <v>4</v>
       </c>
       <c r="G11">
         <v>31</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I11">
         <v>5</v>
@@ -1966,7 +2020,7 @@
         <v>30</v>
       </c>
       <c r="K11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1980,19 +2034,19 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
         <v>54</v>
       </c>
-      <c r="F12" t="s">
-        <v>57</v>
+      <c r="F12">
+        <v>7</v>
       </c>
       <c r="G12">
         <v>31</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I12">
         <v>8</v>
@@ -2001,7 +2055,7 @@
         <v>30</v>
       </c>
       <c r="K12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -2018,16 +2072,16 @@
         <v>43</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" t="s">
-        <v>56</v>
+        <v>59</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
       </c>
       <c r="G13">
         <v>33</v>
       </c>
       <c r="H13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I13">
         <v>5</v>
@@ -2036,7 +2090,7 @@
         <v>32</v>
       </c>
       <c r="K13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -2055,14 +2109,14 @@
       <c r="E14" t="s">
         <v>42</v>
       </c>
-      <c r="F14" t="s">
-        <v>55</v>
+      <c r="F14">
+        <v>1</v>
       </c>
       <c r="G14">
         <v>33</v>
       </c>
       <c r="H14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I14">
         <v>6</v>
@@ -2071,7 +2125,7 @@
         <v>32</v>
       </c>
       <c r="K14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -2090,14 +2144,14 @@
       <c r="E15" t="s">
         <v>44</v>
       </c>
-      <c r="F15" t="s">
-        <v>55</v>
+      <c r="F15">
+        <v>1</v>
       </c>
       <c r="G15">
         <v>35</v>
       </c>
       <c r="H15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I15">
         <v>4</v>
@@ -2106,7 +2160,7 @@
         <v>34</v>
       </c>
       <c r="K15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -2125,14 +2179,14 @@
       <c r="E16" t="s">
         <v>49</v>
       </c>
-      <c r="F16" t="s">
-        <v>55</v>
+      <c r="F16">
+        <v>1</v>
       </c>
       <c r="G16">
         <v>37</v>
       </c>
       <c r="H16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I16">
         <v>4</v>
@@ -2141,7 +2195,7 @@
         <v>36</v>
       </c>
       <c r="K16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -2160,14 +2214,14 @@
       <c r="E17" t="s">
         <v>50</v>
       </c>
-      <c r="F17" t="s">
-        <v>55</v>
+      <c r="F17">
+        <v>1</v>
       </c>
       <c r="G17">
         <v>40</v>
       </c>
       <c r="H17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I17">
         <v>4</v>
@@ -2176,7 +2230,7 @@
         <v>39</v>
       </c>
       <c r="K17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -2195,8 +2249,8 @@
       <c r="E18" t="s">
         <v>51</v>
       </c>
-      <c r="F18" t="s">
-        <v>55</v>
+      <c r="F18">
+        <v>1</v>
       </c>
       <c r="G18">
         <v>146</v>
@@ -2208,7 +2262,7 @@
         <v>145</v>
       </c>
       <c r="K18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -2222,10 +2276,10 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F19">
         <v>4</v>
@@ -2240,7 +2294,7 @@
         <v>42</v>
       </c>
       <c r="K19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -2254,10 +2308,10 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F20">
         <v>5</v>
@@ -2272,7 +2326,7 @@
         <v>42</v>
       </c>
       <c r="K20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -2286,10 +2340,10 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F21">
         <v>6</v>
@@ -2304,7 +2358,7 @@
         <v>42</v>
       </c>
       <c r="K21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -2318,10 +2372,10 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F22">
         <v>4</v>
@@ -2336,7 +2390,7 @@
         <v>43</v>
       </c>
       <c r="K22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -2350,10 +2404,10 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F23">
         <v>5</v>
@@ -2368,7 +2422,7 @@
         <v>43</v>
       </c>
       <c r="K23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -2382,10 +2436,10 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E24" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F24">
         <v>6</v>
@@ -2400,7 +2454,7 @@
         <v>43</v>
       </c>
       <c r="K24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -2414,10 +2468,10 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E25" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -2432,7 +2486,7 @@
         <v>45</v>
       </c>
       <c r="K25" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -2446,10 +2500,10 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E26" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -2464,7 +2518,7 @@
         <v>49</v>
       </c>
       <c r="K26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -2478,10 +2532,10 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -2496,7 +2550,7 @@
         <v>11</v>
       </c>
       <c r="K27" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -2510,10 +2564,10 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E28" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F28">
         <v>5</v>
@@ -2528,7 +2582,7 @@
         <v>11</v>
       </c>
       <c r="K28" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -2542,10 +2596,10 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E29" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -2560,7 +2614,7 @@
         <v>12</v>
       </c>
       <c r="K29" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -2574,10 +2628,10 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E30" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F30">
         <v>5</v>
@@ -2592,7 +2646,7 @@
         <v>12</v>
       </c>
       <c r="K30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -2606,10 +2660,10 @@
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E31" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -2624,7 +2678,7 @@
         <v>13</v>
       </c>
       <c r="K31" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -2638,10 +2692,10 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E32" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F32">
         <v>5</v>
@@ -2656,7 +2710,7 @@
         <v>13</v>
       </c>
       <c r="K32" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -2670,10 +2724,10 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E33" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -2688,7 +2742,7 @@
         <v>14</v>
       </c>
       <c r="K33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -2702,10 +2756,10 @@
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E34" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F34">
         <v>5</v>
@@ -2720,7 +2774,7 @@
         <v>14</v>
       </c>
       <c r="K34" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -2734,10 +2788,10 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E35" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -2752,7 +2806,7 @@
         <v>15</v>
       </c>
       <c r="K35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -2766,10 +2820,10 @@
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E36" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F36">
         <v>5</v>
@@ -2784,7 +2838,7 @@
         <v>15</v>
       </c>
       <c r="K36" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -2798,10 +2852,10 @@
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E37" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -2816,7 +2870,7 @@
         <v>16</v>
       </c>
       <c r="K37" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -2830,10 +2884,10 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E38" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F38">
         <v>5</v>
@@ -2848,7 +2902,7 @@
         <v>16</v>
       </c>
       <c r="K38" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -2862,7 +2916,7 @@
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2880,7 +2934,7 @@
         <v>21</v>
       </c>
       <c r="K39" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -2894,7 +2948,7 @@
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2912,7 +2966,7 @@
         <v>21</v>
       </c>
       <c r="K40" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -2926,7 +2980,7 @@
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2944,7 +2998,7 @@
         <v>21</v>
       </c>
       <c r="K41" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -2958,7 +3012,7 @@
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E42">
         <v>2</v>
@@ -2976,7 +3030,7 @@
         <v>22</v>
       </c>
       <c r="K42" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -2990,7 +3044,7 @@
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -3008,7 +3062,7 @@
         <v>22</v>
       </c>
       <c r="K43" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -3022,7 +3076,7 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E44">
         <v>2</v>
@@ -3040,7 +3094,7 @@
         <v>22</v>
       </c>
       <c r="K44" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -3054,7 +3108,7 @@
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E45">
         <v>3</v>
@@ -3072,7 +3126,7 @@
         <v>23</v>
       </c>
       <c r="K45" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -3086,7 +3140,7 @@
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E46">
         <v>3</v>
@@ -3104,7 +3158,7 @@
         <v>23</v>
       </c>
       <c r="K46" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -3118,7 +3172,7 @@
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E47">
         <v>3</v>
@@ -3136,7 +3190,7 @@
         <v>23</v>
       </c>
       <c r="K47" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -3150,7 +3204,7 @@
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E48">
         <v>4</v>
@@ -3168,7 +3222,7 @@
         <v>24</v>
       </c>
       <c r="K48" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -3182,7 +3236,7 @@
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E49">
         <v>4</v>
@@ -3200,7 +3254,7 @@
         <v>24</v>
       </c>
       <c r="K49" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -3214,7 +3268,7 @@
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E50">
         <v>4</v>
@@ -3232,7 +3286,7 @@
         <v>24</v>
       </c>
       <c r="K50" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -3246,7 +3300,7 @@
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E51">
         <v>5</v>
@@ -3264,7 +3318,7 @@
         <v>25</v>
       </c>
       <c r="K51" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -3278,7 +3332,7 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E52">
         <v>5</v>
@@ -3296,7 +3350,7 @@
         <v>25</v>
       </c>
       <c r="K52" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -3310,7 +3364,7 @@
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E53">
         <v>5</v>
@@ -3328,7 +3382,7 @@
         <v>25</v>
       </c>
       <c r="K53" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -3342,7 +3396,7 @@
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E54">
         <v>6</v>
@@ -3360,7 +3414,7 @@
         <v>26</v>
       </c>
       <c r="K54" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -3374,7 +3428,7 @@
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E55">
         <v>6</v>
@@ -3392,7 +3446,7 @@
         <v>26</v>
       </c>
       <c r="K55" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -3406,7 +3460,7 @@
         <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E56">
         <v>6</v>
@@ -3424,7 +3478,7 @@
         <v>26</v>
       </c>
       <c r="K56" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -3438,7 +3492,7 @@
         <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E57">
         <v>7</v>
@@ -3456,7 +3510,7 @@
         <v>27</v>
       </c>
       <c r="K57" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -3470,7 +3524,7 @@
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E58">
         <v>7</v>
@@ -3488,7 +3542,7 @@
         <v>27</v>
       </c>
       <c r="K58" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -3502,7 +3556,7 @@
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E59">
         <v>7</v>
@@ -3520,7 +3574,7 @@
         <v>27</v>
       </c>
       <c r="K59" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -3534,7 +3588,7 @@
         <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E60">
         <v>8</v>
@@ -3552,7 +3606,7 @@
         <v>28</v>
       </c>
       <c r="K60" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -3566,7 +3620,7 @@
         <v>3</v>
       </c>
       <c r="D61" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E61">
         <v>8</v>
@@ -3584,7 +3638,7 @@
         <v>28</v>
       </c>
       <c r="K61" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -3598,7 +3652,7 @@
         <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E62">
         <v>8</v>
@@ -3616,7 +3670,7 @@
         <v>28</v>
       </c>
       <c r="K62" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -3630,7 +3684,7 @@
         <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E63">
         <v>9</v>
@@ -3648,7 +3702,7 @@
         <v>29</v>
       </c>
       <c r="K63" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -3662,7 +3716,7 @@
         <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E64">
         <v>9</v>
@@ -3680,7 +3734,7 @@
         <v>29</v>
       </c>
       <c r="K64" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -3694,7 +3748,7 @@
         <v>3</v>
       </c>
       <c r="D65" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E65">
         <v>9</v>
@@ -3712,7 +3766,7 @@
         <v>29</v>
       </c>
       <c r="K65" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -3726,7 +3780,7 @@
         <v>3</v>
       </c>
       <c r="D66" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E66">
         <v>10</v>
@@ -3744,7 +3798,7 @@
         <v>30</v>
       </c>
       <c r="K66" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -3758,7 +3812,7 @@
         <v>3</v>
       </c>
       <c r="D67" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E67">
         <v>10</v>
@@ -3776,7 +3830,7 @@
         <v>30</v>
       </c>
       <c r="K67" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -3790,7 +3844,7 @@
         <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E68">
         <v>10</v>
@@ -3808,7 +3862,7 @@
         <v>30</v>
       </c>
       <c r="K68" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -3822,7 +3876,7 @@
         <v>3</v>
       </c>
       <c r="D69" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E69">
         <v>11</v>
@@ -3840,7 +3894,7 @@
         <v>31</v>
       </c>
       <c r="K69" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -3854,7 +3908,7 @@
         <v>3</v>
       </c>
       <c r="D70" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E70">
         <v>11</v>
@@ -3872,7 +3926,7 @@
         <v>31</v>
       </c>
       <c r="K70" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -3886,7 +3940,7 @@
         <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E71">
         <v>11</v>
@@ -3904,7 +3958,7 @@
         <v>31</v>
       </c>
       <c r="K71" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -3918,7 +3972,7 @@
         <v>3</v>
       </c>
       <c r="D72" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E72">
         <v>12</v>
@@ -3936,7 +3990,7 @@
         <v>32</v>
       </c>
       <c r="K72" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -3950,7 +4004,7 @@
         <v>3</v>
       </c>
       <c r="D73" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E73">
         <v>12</v>
@@ -3968,7 +4022,7 @@
         <v>32</v>
       </c>
       <c r="K73" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -3982,7 +4036,7 @@
         <v>3</v>
       </c>
       <c r="D74" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E74">
         <v>12</v>
@@ -4000,7 +4054,7 @@
         <v>32</v>
       </c>
       <c r="K74" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -4014,7 +4068,7 @@
         <v>3</v>
       </c>
       <c r="D75" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E75">
         <v>13</v>
@@ -4032,7 +4086,7 @@
         <v>33</v>
       </c>
       <c r="K75" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -4046,7 +4100,7 @@
         <v>3</v>
       </c>
       <c r="D76" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E76">
         <v>13</v>
@@ -4064,7 +4118,7 @@
         <v>33</v>
       </c>
       <c r="K76" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -4078,7 +4132,7 @@
         <v>3</v>
       </c>
       <c r="D77" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E77">
         <v>13</v>
@@ -4096,7 +4150,7 @@
         <v>33</v>
       </c>
       <c r="K77" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
@@ -4110,7 +4164,7 @@
         <v>3</v>
       </c>
       <c r="D78" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E78">
         <v>14</v>
@@ -4128,7 +4182,7 @@
         <v>34</v>
       </c>
       <c r="K78" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
@@ -4142,7 +4196,7 @@
         <v>3</v>
       </c>
       <c r="D79" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E79">
         <v>14</v>
@@ -4160,7 +4214,7 @@
         <v>34</v>
       </c>
       <c r="K79" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
@@ -4174,7 +4228,7 @@
         <v>3</v>
       </c>
       <c r="D80" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E80">
         <v>14</v>
@@ -4192,7 +4246,7 @@
         <v>34</v>
       </c>
       <c r="K80" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -4206,7 +4260,7 @@
         <v>3</v>
       </c>
       <c r="D81" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E81">
         <v>15</v>
@@ -4224,7 +4278,7 @@
         <v>35</v>
       </c>
       <c r="K81" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -4238,7 +4292,7 @@
         <v>3</v>
       </c>
       <c r="D82" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E82">
         <v>15</v>
@@ -4256,7 +4310,7 @@
         <v>35</v>
       </c>
       <c r="K82" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -4270,7 +4324,7 @@
         <v>3</v>
       </c>
       <c r="D83" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E83">
         <v>15</v>
@@ -4288,7 +4342,7 @@
         <v>35</v>
       </c>
       <c r="K83" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -4302,7 +4356,7 @@
         <v>3</v>
       </c>
       <c r="D84" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E84">
         <v>16</v>
@@ -4320,7 +4374,7 @@
         <v>36</v>
       </c>
       <c r="K84" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -4334,7 +4388,7 @@
         <v>3</v>
       </c>
       <c r="D85" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E85">
         <v>16</v>
@@ -4352,7 +4406,7 @@
         <v>36</v>
       </c>
       <c r="K85" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -4366,7 +4420,7 @@
         <v>3</v>
       </c>
       <c r="D86" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E86">
         <v>16</v>
@@ -4384,7 +4438,7 @@
         <v>36</v>
       </c>
       <c r="K86" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -4398,7 +4452,7 @@
         <v>3</v>
       </c>
       <c r="D87" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E87">
         <v>17</v>
@@ -4416,7 +4470,7 @@
         <v>37</v>
       </c>
       <c r="K87" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -4430,7 +4484,7 @@
         <v>3</v>
       </c>
       <c r="D88" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E88">
         <v>17</v>
@@ -4448,7 +4502,7 @@
         <v>37</v>
       </c>
       <c r="K88" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -4462,7 +4516,7 @@
         <v>3</v>
       </c>
       <c r="D89" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E89">
         <v>17</v>
@@ -4480,7 +4534,7 @@
         <v>37</v>
       </c>
       <c r="K89" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -4494,10 +4548,10 @@
         <v>3</v>
       </c>
       <c r="D90" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E90" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -4512,7 +4566,7 @@
         <v>39</v>
       </c>
       <c r="K90" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -4526,10 +4580,10 @@
         <v>3</v>
       </c>
       <c r="D91" t="s">
+        <v>85</v>
+      </c>
+      <c r="E91" t="s">
         <v>88</v>
-      </c>
-      <c r="E91" t="s">
-        <v>91</v>
       </c>
       <c r="F91">
         <v>4</v>
@@ -4544,7 +4598,7 @@
         <v>43</v>
       </c>
       <c r="K91" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -4558,10 +4612,10 @@
         <v>3</v>
       </c>
       <c r="D92" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E92" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F92">
         <v>5</v>
@@ -4576,7 +4630,7 @@
         <v>43</v>
       </c>
       <c r="K92" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -4590,10 +4644,10 @@
         <v>3</v>
       </c>
       <c r="D93" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E93" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F93">
         <v>7</v>
@@ -4608,260 +4662,1568 @@
         <v>43</v>
       </c>
       <c r="K93" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>4</v>
+      </c>
+      <c r="D94" t="s">
+        <v>89</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>7</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>8</v>
+      </c>
+      <c r="K94" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>4</v>
+      </c>
+      <c r="D95" t="s">
+        <v>90</v>
+      </c>
+      <c r="E95" t="s">
+        <v>91</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>13</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>15</v>
+      </c>
+      <c r="K95" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>4</v>
+      </c>
+      <c r="D96" t="s">
+        <v>93</v>
+      </c>
+      <c r="E96" t="s">
+        <v>92</v>
+      </c>
+      <c r="F96">
+        <v>2</v>
+      </c>
+      <c r="G96">
+        <v>13</v>
+      </c>
+      <c r="I96">
+        <v>2</v>
+      </c>
+      <c r="J96">
+        <v>15</v>
+      </c>
+      <c r="K96" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>4</v>
+      </c>
+      <c r="D97" t="s">
+        <v>94</v>
+      </c>
+      <c r="E97" t="s">
+        <v>73</v>
+      </c>
+      <c r="F97">
+        <v>3</v>
+      </c>
+      <c r="G97">
+        <v>13</v>
+      </c>
+      <c r="I97">
+        <v>3</v>
+      </c>
+      <c r="J97">
+        <v>15</v>
+      </c>
+      <c r="K97" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>4</v>
+      </c>
+      <c r="D98" t="s">
+        <v>95</v>
+      </c>
+      <c r="E98" t="s">
+        <v>70</v>
+      </c>
+      <c r="F98">
+        <v>4</v>
+      </c>
+      <c r="G98">
+        <v>13</v>
+      </c>
+      <c r="I98">
+        <v>4</v>
+      </c>
+      <c r="J98">
+        <v>15</v>
+      </c>
+      <c r="K98" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>4</v>
+      </c>
+      <c r="D99" t="s">
+        <v>96</v>
+      </c>
+      <c r="E99" t="s">
+        <v>76</v>
+      </c>
+      <c r="F99">
+        <v>5</v>
+      </c>
+      <c r="G99">
+        <v>13</v>
+      </c>
+      <c r="I99">
+        <v>5</v>
+      </c>
+      <c r="J99">
+        <v>15</v>
+      </c>
+      <c r="K99" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>4</v>
+      </c>
+      <c r="D100" t="s">
+        <v>100</v>
+      </c>
+      <c r="E100" t="s">
+        <v>97</v>
+      </c>
+      <c r="F100">
+        <v>7</v>
+      </c>
+      <c r="G100">
+        <v>13</v>
+      </c>
+      <c r="I100">
+        <v>7</v>
+      </c>
+      <c r="J100">
+        <v>15</v>
+      </c>
+      <c r="K100" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>4</v>
+      </c>
+      <c r="D101" t="s">
+        <v>101</v>
+      </c>
+      <c r="E101" t="s">
+        <v>98</v>
+      </c>
+      <c r="F101">
+        <v>8</v>
+      </c>
+      <c r="G101">
+        <v>13</v>
+      </c>
+      <c r="I101">
+        <v>8</v>
+      </c>
+      <c r="J101">
+        <v>15</v>
+      </c>
+      <c r="K101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>100</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>4</v>
+      </c>
+      <c r="D102" t="s">
+        <v>102</v>
+      </c>
+      <c r="E102" t="s">
+        <v>99</v>
+      </c>
+      <c r="F102">
+        <v>9</v>
+      </c>
+      <c r="G102">
+        <v>13</v>
+      </c>
+      <c r="I102">
+        <v>9</v>
+      </c>
+      <c r="J102">
+        <v>15</v>
+      </c>
+      <c r="K102" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>101</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>4</v>
+      </c>
+      <c r="D103" t="s">
+        <v>103</v>
+      </c>
+      <c r="E103" t="s">
+        <v>18</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <v>19</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>20</v>
+      </c>
+      <c r="K103" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>102</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>4</v>
+      </c>
+      <c r="D104" t="s">
+        <v>107</v>
+      </c>
+      <c r="E104" t="s">
+        <v>104</v>
+      </c>
+      <c r="F104">
+        <v>4</v>
+      </c>
+      <c r="G104">
+        <v>19</v>
+      </c>
+      <c r="I104">
+        <v>4</v>
+      </c>
+      <c r="J104">
+        <v>20</v>
+      </c>
+      <c r="K104" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>103</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>4</v>
+      </c>
+      <c r="D105" t="s">
+        <v>108</v>
+      </c>
+      <c r="E105" t="s">
+        <v>105</v>
+      </c>
+      <c r="F105">
+        <v>7</v>
+      </c>
+      <c r="G105">
+        <v>19</v>
+      </c>
+      <c r="I105">
+        <v>7</v>
+      </c>
+      <c r="J105">
+        <v>20</v>
+      </c>
+      <c r="K105" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>104</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>4</v>
+      </c>
+      <c r="D106" t="s">
+        <v>109</v>
+      </c>
+      <c r="E106" t="s">
+        <v>106</v>
+      </c>
+      <c r="F106">
+        <v>8</v>
+      </c>
+      <c r="G106">
+        <v>19</v>
+      </c>
+      <c r="I106">
+        <v>8</v>
+      </c>
+      <c r="J106">
+        <v>20</v>
+      </c>
+      <c r="K106" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>105</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>4</v>
+      </c>
+      <c r="D107" t="s">
+        <v>103</v>
+      </c>
+      <c r="E107" t="s">
+        <v>18</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <v>19</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>21</v>
+      </c>
+      <c r="K107" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>106</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>4</v>
+      </c>
+      <c r="D108" t="s">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>104</v>
+      </c>
+      <c r="F108">
+        <v>4</v>
+      </c>
+      <c r="G108">
+        <v>19</v>
+      </c>
+      <c r="I108">
+        <v>4</v>
+      </c>
+      <c r="J108">
+        <v>21</v>
+      </c>
+      <c r="K108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>107</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>4</v>
+      </c>
+      <c r="D109" t="s">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>105</v>
+      </c>
+      <c r="F109">
+        <v>7</v>
+      </c>
+      <c r="G109">
+        <v>19</v>
+      </c>
+      <c r="I109">
+        <v>7</v>
+      </c>
+      <c r="J109">
+        <v>21</v>
+      </c>
+      <c r="K109" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>108</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>4</v>
+      </c>
+      <c r="D110" t="s">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>106</v>
+      </c>
+      <c r="F110">
+        <v>8</v>
+      </c>
+      <c r="G110">
+        <v>19</v>
+      </c>
+      <c r="I110">
+        <v>8</v>
+      </c>
+      <c r="J110">
+        <v>21</v>
+      </c>
+      <c r="K110" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>109</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>4</v>
+      </c>
+      <c r="D111" t="s">
+        <v>103</v>
+      </c>
+      <c r="E111" t="s">
+        <v>18</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <v>19</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <v>22</v>
+      </c>
+      <c r="K111" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>110</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>4</v>
+      </c>
+      <c r="D112" t="s">
+        <v>107</v>
+      </c>
+      <c r="E112" t="s">
+        <v>104</v>
+      </c>
+      <c r="F112">
+        <v>4</v>
+      </c>
+      <c r="G112">
+        <v>19</v>
+      </c>
+      <c r="I112">
+        <v>4</v>
+      </c>
+      <c r="J112">
+        <v>22</v>
+      </c>
+      <c r="K112" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>111</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>4</v>
+      </c>
+      <c r="D113" t="s">
+        <v>108</v>
+      </c>
+      <c r="E113" t="s">
+        <v>105</v>
+      </c>
+      <c r="F113">
+        <v>7</v>
+      </c>
+      <c r="G113">
+        <v>19</v>
+      </c>
+      <c r="I113">
+        <v>7</v>
+      </c>
+      <c r="J113">
+        <v>22</v>
+      </c>
+      <c r="K113" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>112</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>4</v>
+      </c>
+      <c r="D114" t="s">
+        <v>109</v>
+      </c>
+      <c r="E114" t="s">
+        <v>106</v>
+      </c>
+      <c r="F114">
+        <v>8</v>
+      </c>
+      <c r="G114">
+        <v>19</v>
+      </c>
+      <c r="I114">
+        <v>8</v>
+      </c>
+      <c r="J114">
+        <v>22</v>
+      </c>
+      <c r="K114" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>113</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>4</v>
+      </c>
+      <c r="D115" t="s">
+        <v>103</v>
+      </c>
+      <c r="E115" t="s">
+        <v>18</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115">
+        <v>19</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>23</v>
+      </c>
+      <c r="K115" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>114</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>4</v>
+      </c>
+      <c r="D116" t="s">
+        <v>107</v>
+      </c>
+      <c r="E116" t="s">
+        <v>104</v>
+      </c>
+      <c r="F116">
+        <v>4</v>
+      </c>
+      <c r="G116">
+        <v>19</v>
+      </c>
+      <c r="I116">
+        <v>4</v>
+      </c>
+      <c r="J116">
+        <v>23</v>
+      </c>
+      <c r="K116" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>115</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>4</v>
+      </c>
+      <c r="D117" t="s">
+        <v>108</v>
+      </c>
+      <c r="E117" t="s">
+        <v>105</v>
+      </c>
+      <c r="F117">
+        <v>7</v>
+      </c>
+      <c r="G117">
+        <v>19</v>
+      </c>
+      <c r="I117">
+        <v>7</v>
+      </c>
+      <c r="J117">
+        <v>23</v>
+      </c>
+      <c r="K117" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>116</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118">
+        <v>4</v>
+      </c>
+      <c r="D118" t="s">
+        <v>109</v>
+      </c>
+      <c r="E118" t="s">
+        <v>106</v>
+      </c>
+      <c r="F118">
+        <v>8</v>
+      </c>
+      <c r="G118">
+        <v>19</v>
+      </c>
+      <c r="I118">
+        <v>8</v>
+      </c>
+      <c r="J118">
+        <v>23</v>
+      </c>
+      <c r="K118" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>117</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <v>4</v>
+      </c>
+      <c r="D119" t="s">
+        <v>103</v>
+      </c>
+      <c r="E119" t="s">
+        <v>18</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119">
+        <v>19</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>24</v>
+      </c>
+      <c r="K119" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>118</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120">
+        <v>4</v>
+      </c>
+      <c r="D120" t="s">
+        <v>107</v>
+      </c>
+      <c r="E120" t="s">
+        <v>104</v>
+      </c>
+      <c r="F120">
+        <v>4</v>
+      </c>
+      <c r="G120">
+        <v>19</v>
+      </c>
+      <c r="I120">
+        <v>4</v>
+      </c>
+      <c r="J120">
+        <v>24</v>
+      </c>
+      <c r="K120" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>119</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>4</v>
+      </c>
+      <c r="D121" t="s">
+        <v>108</v>
+      </c>
+      <c r="E121" t="s">
+        <v>105</v>
+      </c>
+      <c r="F121">
+        <v>7</v>
+      </c>
+      <c r="G121">
+        <v>19</v>
+      </c>
+      <c r="I121">
+        <v>7</v>
+      </c>
+      <c r="J121">
+        <v>24</v>
+      </c>
+      <c r="K121" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>120</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>4</v>
+      </c>
+      <c r="D122" t="s">
+        <v>109</v>
+      </c>
+      <c r="E122" t="s">
+        <v>106</v>
+      </c>
+      <c r="F122">
+        <v>8</v>
+      </c>
+      <c r="G122">
+        <v>19</v>
+      </c>
+      <c r="I122">
+        <v>8</v>
+      </c>
+      <c r="J122">
+        <v>24</v>
+      </c>
+      <c r="K122" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>121</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>4</v>
+      </c>
+      <c r="D123" t="s">
+        <v>103</v>
+      </c>
+      <c r="E123" t="s">
+        <v>18</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123">
+        <v>19</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>25</v>
+      </c>
+      <c r="K123" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>122</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>4</v>
+      </c>
+      <c r="D124" t="s">
+        <v>107</v>
+      </c>
+      <c r="E124" t="s">
+        <v>104</v>
+      </c>
+      <c r="F124">
+        <v>4</v>
+      </c>
+      <c r="G124">
+        <v>19</v>
+      </c>
+      <c r="I124">
+        <v>4</v>
+      </c>
+      <c r="J124">
+        <v>25</v>
+      </c>
+      <c r="K124" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>123</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125">
+        <v>4</v>
+      </c>
+      <c r="D125" t="s">
+        <v>108</v>
+      </c>
+      <c r="E125" t="s">
+        <v>105</v>
+      </c>
+      <c r="F125">
+        <v>7</v>
+      </c>
+      <c r="G125">
+        <v>19</v>
+      </c>
+      <c r="I125">
+        <v>7</v>
+      </c>
+      <c r="J125">
+        <v>25</v>
+      </c>
+      <c r="K125" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>124</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126">
+        <v>4</v>
+      </c>
+      <c r="D126" t="s">
+        <v>109</v>
+      </c>
+      <c r="E126" t="s">
+        <v>106</v>
+      </c>
+      <c r="F126">
+        <v>8</v>
+      </c>
+      <c r="G126">
+        <v>19</v>
+      </c>
+      <c r="I126">
+        <v>8</v>
+      </c>
+      <c r="J126">
+        <v>25</v>
+      </c>
+      <c r="K126" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>125</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127">
+        <v>4</v>
+      </c>
+      <c r="D127" t="s">
+        <v>103</v>
+      </c>
+      <c r="E127" t="s">
+        <v>18</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127">
+        <v>19</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>26</v>
+      </c>
+      <c r="K127" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>126</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128">
+        <v>4</v>
+      </c>
+      <c r="D128" t="s">
+        <v>107</v>
+      </c>
+      <c r="E128" t="s">
+        <v>104</v>
+      </c>
+      <c r="F128">
+        <v>4</v>
+      </c>
+      <c r="G128">
+        <v>19</v>
+      </c>
+      <c r="I128">
+        <v>4</v>
+      </c>
+      <c r="J128">
+        <v>26</v>
+      </c>
+      <c r="K128" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>127</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129">
+        <v>4</v>
+      </c>
+      <c r="D129" t="s">
+        <v>108</v>
+      </c>
+      <c r="E129" t="s">
+        <v>105</v>
+      </c>
+      <c r="F129">
+        <v>7</v>
+      </c>
+      <c r="G129">
+        <v>19</v>
+      </c>
+      <c r="I129">
+        <v>7</v>
+      </c>
+      <c r="J129">
+        <v>26</v>
+      </c>
+      <c r="K129" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>128</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130">
+        <v>4</v>
+      </c>
+      <c r="D130" t="s">
+        <v>109</v>
+      </c>
+      <c r="E130" t="s">
+        <v>106</v>
+      </c>
+      <c r="F130">
+        <v>8</v>
+      </c>
+      <c r="G130">
+        <v>19</v>
+      </c>
+      <c r="I130">
+        <v>8</v>
+      </c>
+      <c r="J130">
+        <v>26</v>
+      </c>
+      <c r="K130" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>129</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131">
+        <v>4</v>
+      </c>
+      <c r="D131" t="s">
+        <v>103</v>
+      </c>
+      <c r="E131" t="s">
+        <v>18</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="G131">
+        <v>19</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>27</v>
+      </c>
+      <c r="K131" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>130</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132">
+        <v>4</v>
+      </c>
+      <c r="D132" t="s">
+        <v>107</v>
+      </c>
+      <c r="E132" t="s">
+        <v>104</v>
+      </c>
+      <c r="F132">
+        <v>4</v>
+      </c>
+      <c r="G132">
+        <v>19</v>
+      </c>
+      <c r="I132">
+        <v>4</v>
+      </c>
+      <c r="J132">
+        <v>27</v>
+      </c>
+      <c r="K132" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>131</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133">
+        <v>4</v>
+      </c>
+      <c r="D133" t="s">
+        <v>108</v>
+      </c>
+      <c r="E133" t="s">
+        <v>105</v>
+      </c>
+      <c r="F133">
+        <v>7</v>
+      </c>
+      <c r="G133">
+        <v>19</v>
+      </c>
+      <c r="I133">
+        <v>7</v>
+      </c>
+      <c r="J133">
+        <v>27</v>
+      </c>
+      <c r="K133" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>132</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134">
+        <v>4</v>
+      </c>
+      <c r="D134" t="s">
+        <v>109</v>
+      </c>
+      <c r="E134" t="s">
+        <v>106</v>
+      </c>
+      <c r="F134">
+        <v>8</v>
+      </c>
+      <c r="G134">
+        <v>19</v>
+      </c>
+      <c r="I134">
+        <v>8</v>
+      </c>
+      <c r="J134">
+        <v>27</v>
+      </c>
+      <c r="K134" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>133</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135">
+        <v>4</v>
+      </c>
+      <c r="D135" t="s">
+        <v>103</v>
+      </c>
+      <c r="E135" t="s">
+        <v>18</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135">
+        <v>19</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>28</v>
+      </c>
+      <c r="K135" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>134</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136">
+        <v>4</v>
+      </c>
+      <c r="D136" t="s">
+        <v>107</v>
+      </c>
+      <c r="E136" t="s">
+        <v>104</v>
+      </c>
+      <c r="F136">
+        <v>4</v>
+      </c>
+      <c r="G136">
+        <v>19</v>
+      </c>
+      <c r="I136">
+        <v>4</v>
+      </c>
+      <c r="J136">
+        <v>28</v>
+      </c>
+      <c r="K136" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>135</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137">
+        <v>4</v>
+      </c>
+      <c r="D137" t="s">
+        <v>108</v>
+      </c>
+      <c r="E137" t="s">
+        <v>105</v>
+      </c>
+      <c r="F137">
+        <v>7</v>
+      </c>
+      <c r="G137">
+        <v>19</v>
+      </c>
+      <c r="I137">
+        <v>7</v>
+      </c>
+      <c r="J137">
+        <v>28</v>
+      </c>
+      <c r="K137" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>136</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138">
+        <v>4</v>
+      </c>
+      <c r="D138" t="s">
+        <v>109</v>
+      </c>
+      <c r="E138" t="s">
+        <v>106</v>
+      </c>
+      <c r="F138">
+        <v>8</v>
+      </c>
+      <c r="G138">
+        <v>19</v>
+      </c>
+      <c r="I138">
+        <v>8</v>
+      </c>
+      <c r="J138">
+        <v>28</v>
+      </c>
+      <c r="K138" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>137</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139">
+        <v>4</v>
+      </c>
+      <c r="D139" t="s">
+        <v>103</v>
+      </c>
+      <c r="E139" t="s">
+        <v>18</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="G139">
+        <v>19</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>29</v>
+      </c>
+      <c r="K139" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>138</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140">
+        <v>4</v>
+      </c>
+      <c r="D140" t="s">
+        <v>107</v>
+      </c>
+      <c r="E140" t="s">
+        <v>104</v>
+      </c>
+      <c r="F140">
+        <v>4</v>
+      </c>
+      <c r="G140">
+        <v>19</v>
+      </c>
+      <c r="I140">
+        <v>4</v>
+      </c>
+      <c r="J140">
+        <v>29</v>
+      </c>
+      <c r="K140" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>139</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D141" t="s">
+        <v>108</v>
+      </c>
+      <c r="E141" t="s">
+        <v>105</v>
+      </c>
+      <c r="F141">
+        <v>7</v>
+      </c>
+      <c r="G141">
+        <v>19</v>
+      </c>
+      <c r="I141">
+        <v>7</v>
+      </c>
+      <c r="J141">
+        <v>29</v>
+      </c>
+      <c r="K141" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>140</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D142" t="s">
+        <v>109</v>
+      </c>
+      <c r="E142" t="s">
+        <v>106</v>
+      </c>
+      <c r="F142">
+        <v>8</v>
+      </c>
+      <c r="G142">
+        <v>19</v>
+      </c>
+      <c r="I142">
+        <v>8</v>
+      </c>
+      <c r="J142">
+        <v>29</v>
+      </c>
+      <c r="K142" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>142</v>
       </c>
